--- a/DB_subidas/Inventario.xlsx
+++ b/DB_subidas/Inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26505290-071F-4E13-8BF8-3E9046C9F8EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610DD60A-532F-464F-AC60-1EBC1AD92AFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Nombre</t>
   </si>
   <si>
+    <t>Referencia</t>
+  </si>
+  <si>
     <t>Cantidad</t>
   </si>
   <si>
@@ -37,37 +40,139 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>Pintura Blanca</t>
+  </si>
+  <si>
+    <t>Galón</t>
+  </si>
+  <si>
+    <t>Tornillos 1</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>Tornillos 3/4</t>
+  </si>
+  <si>
+    <t>Destornillador</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Brocha</t>
+  </si>
+  <si>
+    <t>Cemento</t>
+  </si>
+  <si>
+    <t>Bulto</t>
+  </si>
+  <si>
+    <t>Cinta Aislante</t>
+  </si>
+  <si>
+    <t>Martillo</t>
+  </si>
+  <si>
+    <t>Clavos 1</t>
+  </si>
+  <si>
+    <t>Clavos 1/2</t>
+  </si>
+  <si>
+    <t>Alicates</t>
+  </si>
+  <si>
+    <t>Tijeras</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
     <t>Agregado 3/8</t>
   </si>
   <si>
-    <t>Bulto</t>
-  </si>
-  <si>
-    <t>Alicates</t>
-  </si>
-  <si>
-    <t>Unidad</t>
-  </si>
-  <si>
-    <t>Arena</t>
-  </si>
-  <si>
-    <t>Cemento</t>
-  </si>
-  <si>
-    <t>Cinta Aislante</t>
-  </si>
-  <si>
-    <t>Destornillador</t>
-  </si>
-  <si>
-    <t>Tijeras</t>
+    <t>Barras 1/2</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>Barras 1/3</t>
+  </si>
+  <si>
+    <t>Barras 1/4</t>
+  </si>
+  <si>
+    <t>Barras 1/5</t>
+  </si>
+  <si>
+    <t>Barras 1/6</t>
   </si>
   <si>
     <t>Tuercas</t>
   </si>
   <si>
-    <t>unidad</t>
+    <t>ABC00001</t>
+  </si>
+  <si>
+    <t>ABC00002</t>
+  </si>
+  <si>
+    <t>ABC00003</t>
+  </si>
+  <si>
+    <t>ABC00004</t>
+  </si>
+  <si>
+    <t>ABC00005</t>
+  </si>
+  <si>
+    <t>ABC00006</t>
+  </si>
+  <si>
+    <t>ABC00007</t>
+  </si>
+  <si>
+    <t>ABC00008</t>
+  </si>
+  <si>
+    <t>ABC00009</t>
+  </si>
+  <si>
+    <t>ABC00010</t>
+  </si>
+  <si>
+    <t>ABC00011</t>
+  </si>
+  <si>
+    <t>ABC00012</t>
+  </si>
+  <si>
+    <t>ABC00013</t>
+  </si>
+  <si>
+    <t>ABC00014</t>
+  </si>
+  <si>
+    <t>ABC00015</t>
+  </si>
+  <si>
+    <t>ABC00016</t>
+  </si>
+  <si>
+    <t>ABC00017</t>
+  </si>
+  <si>
+    <t>ABC00018</t>
+  </si>
+  <si>
+    <t>ABC00019</t>
+  </si>
+  <si>
+    <t>ABC00020</t>
   </si>
 </sst>
 </file>
@@ -464,171 +569,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3">
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3">
+        <v>53</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="3">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3">
         <v>55</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3">
         <v>50005</v>
       </c>
     </row>

--- a/DB_subidas/Inventario.xlsx
+++ b/DB_subidas/Inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610DD60A-532F-464F-AC60-1EBC1AD92AFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C6D796-7721-4973-8237-5D79505A08C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -37,142 +37,139 @@
     <t>Presentación</t>
   </si>
   <si>
-    <t>Precio</t>
+    <t>Precio de Venta</t>
+  </si>
+  <si>
+    <t>Precio de Compra</t>
+  </si>
+  <si>
+    <t>Agregado 3/8</t>
+  </si>
+  <si>
+    <t>ABC00014</t>
+  </si>
+  <si>
+    <t>Bulto</t>
+  </si>
+  <si>
+    <t>Alicates</t>
+  </si>
+  <si>
+    <t>ABC00011</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>ABC00013</t>
+  </si>
+  <si>
+    <t>Barras 1/3</t>
+  </si>
+  <si>
+    <t>ABC00016</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>Barras 1/4</t>
+  </si>
+  <si>
+    <t>ABC00017</t>
+  </si>
+  <si>
+    <t>Barras 1/5</t>
+  </si>
+  <si>
+    <t>ABC00018</t>
+  </si>
+  <si>
+    <t>Barras 1/6</t>
+  </si>
+  <si>
+    <t>ABC00019</t>
+  </si>
+  <si>
+    <t>Brocha</t>
+  </si>
+  <si>
+    <t>ABC00005</t>
+  </si>
+  <si>
+    <t>Cemento</t>
+  </si>
+  <si>
+    <t>ABC00006</t>
+  </si>
+  <si>
+    <t>Cinta Aislante</t>
+  </si>
+  <si>
+    <t>ABC00007</t>
+  </si>
+  <si>
+    <t>Clavos 1</t>
+  </si>
+  <si>
+    <t>ABC00009</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>Clavos 1/2</t>
+  </si>
+  <si>
+    <t>ABC00010</t>
+  </si>
+  <si>
+    <t>Destornillador</t>
+  </si>
+  <si>
+    <t>ABC00004</t>
+  </si>
+  <si>
+    <t>Martillo</t>
+  </si>
+  <si>
+    <t>ABC00008</t>
   </si>
   <si>
     <t>Pintura Blanca</t>
   </si>
   <si>
+    <t>ABC00001</t>
+  </si>
+  <si>
     <t>Galón</t>
   </si>
   <si>
+    <t>Tijeras</t>
+  </si>
+  <si>
+    <t>ABC00012</t>
+  </si>
+  <si>
     <t>Tornillos 1</t>
   </si>
   <si>
-    <t>Caja</t>
+    <t>ABC00002</t>
   </si>
   <si>
     <t>Tornillos 3/4</t>
   </si>
   <si>
-    <t>Destornillador</t>
-  </si>
-  <si>
-    <t>Unidad</t>
-  </si>
-  <si>
-    <t>Brocha</t>
-  </si>
-  <si>
-    <t>Cemento</t>
-  </si>
-  <si>
-    <t>Bulto</t>
-  </si>
-  <si>
-    <t>Cinta Aislante</t>
-  </si>
-  <si>
-    <t>Martillo</t>
-  </si>
-  <si>
-    <t>Clavos 1</t>
-  </si>
-  <si>
-    <t>Clavos 1/2</t>
-  </si>
-  <si>
-    <t>Alicates</t>
-  </si>
-  <si>
-    <t>Tijeras</t>
-  </si>
-  <si>
-    <t>Arena</t>
-  </si>
-  <si>
-    <t>Agregado 3/8</t>
-  </si>
-  <si>
-    <t>Barras 1/2</t>
-  </si>
-  <si>
-    <t>unidad</t>
-  </si>
-  <si>
-    <t>Barras 1/3</t>
-  </si>
-  <si>
-    <t>Barras 1/4</t>
-  </si>
-  <si>
-    <t>Barras 1/5</t>
-  </si>
-  <si>
-    <t>Barras 1/6</t>
+    <t>ABC00003</t>
   </si>
   <si>
     <t>Tuercas</t>
   </si>
   <si>
-    <t>ABC00001</t>
-  </si>
-  <si>
-    <t>ABC00002</t>
-  </si>
-  <si>
-    <t>ABC00003</t>
-  </si>
-  <si>
-    <t>ABC00004</t>
-  </si>
-  <si>
-    <t>ABC00005</t>
-  </si>
-  <si>
-    <t>ABC00006</t>
-  </si>
-  <si>
-    <t>ABC00007</t>
-  </si>
-  <si>
-    <t>ABC00008</t>
-  </si>
-  <si>
-    <t>ABC00009</t>
-  </si>
-  <si>
-    <t>ABC00010</t>
-  </si>
-  <si>
-    <t>ABC00011</t>
-  </si>
-  <si>
-    <t>ABC00012</t>
-  </si>
-  <si>
-    <t>ABC00013</t>
-  </si>
-  <si>
-    <t>ABC00014</t>
-  </si>
-  <si>
-    <t>ABC00015</t>
-  </si>
-  <si>
-    <t>ABC00016</t>
-  </si>
-  <si>
-    <t>ABC00017</t>
-  </si>
-  <si>
-    <t>ABC00018</t>
-  </si>
-  <si>
-    <t>ABC00019</t>
-  </si>
-  <si>
-    <t>ABC00020</t>
+    <t>SIGO123</t>
   </si>
 </sst>
 </file>
@@ -569,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,10 +579,11 @@
     <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -604,405 +602,445 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3">
-        <v>15</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3">
-        <v>40</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>51</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50002</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>53</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50003</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50004</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3">
         <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="3">
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3">
         <v>4700</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="G12" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3">
         <v>15</v>
       </c>
-      <c r="F14" s="3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="3">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3">
-        <v>51</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="3">
-        <v>50001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3">
-        <v>52</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="3">
-        <v>50002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" s="3">
-        <v>53</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="3">
-        <v>50003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="3">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3">
-        <v>50004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3">
-        <v>55</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="3">
-        <v>50005</v>
+        <v>5000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
